--- a/自走棋策划/棋子设计/棋子设计.xlsx
+++ b/自走棋策划/棋子设计/棋子设计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>角色ID</t>
   </si>
@@ -159,33 +159,42 @@
     <t>非前排</t>
   </si>
   <si>
+    <t>1;1;1;3;3;3;5;5;5</t>
+  </si>
+  <si>
+    <t>优先攻击后排，其次中排</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>村匪</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>村霸</t>
+  </si>
+  <si>
+    <t>死亡后使所有友方单位获得+2攻击力及圣盾</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>贼惦记</t>
+  </si>
+  <si>
+    <t>后排</t>
+  </si>
+  <si>
     <t>1;1;1;1;1;1;5;5;5</t>
   </si>
   <si>
     <t>优先攻击后排</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>村匪</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>村霸</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>贼惦记</t>
-  </si>
-  <si>
-    <t>后排</t>
-  </si>
-  <si>
     <t>Z1</t>
   </si>
   <si>
@@ -208,6 +217,99 @@
   </si>
   <si>
     <t>圣盾，拥有圣盾时获得+9攻击力</t>
+  </si>
+  <si>
+    <t>JC1</t>
+  </si>
+  <si>
+    <t>基础一</t>
+  </si>
+  <si>
+    <t>血量低于12时获得+1攻击力</t>
+  </si>
+  <si>
+    <t>JC2</t>
+  </si>
+  <si>
+    <t>基础二</t>
+  </si>
+  <si>
+    <t>在同排中更容易被攻击</t>
+  </si>
+  <si>
+    <t>JC3</t>
+  </si>
+  <si>
+    <t>基础三</t>
+  </si>
+  <si>
+    <t>首回合不受反击伤害</t>
+  </si>
+  <si>
+    <t>JC4</t>
+  </si>
+  <si>
+    <t>基础四</t>
+  </si>
+  <si>
+    <t>JC5</t>
+  </si>
+  <si>
+    <t>基础五</t>
+  </si>
+  <si>
+    <t>受到攻击后获得一点气力(仅被选为攻击目标时)</t>
+  </si>
+  <si>
+    <t>气力满后，下次反击使目标获得(流血*1)</t>
+  </si>
+  <si>
+    <t>JC6</t>
+  </si>
+  <si>
+    <t>基础六</t>
+  </si>
+  <si>
+    <t>中排</t>
+  </si>
+  <si>
+    <t>攻击时获得一点气力</t>
+  </si>
+  <si>
+    <t>气力满后，下次攻击使目标获得(中毒*1)</t>
+  </si>
+  <si>
+    <t>JC7</t>
+  </si>
+  <si>
+    <t>基础七</t>
+  </si>
+  <si>
+    <t>风怒，战斗开始及攻击时获得一点气力</t>
+  </si>
+  <si>
+    <t>气力满后，下次攻击使目标获得(燃烧*2)</t>
+  </si>
+  <si>
+    <t>JC8</t>
+  </si>
+  <si>
+    <t>基础八</t>
+  </si>
+  <si>
+    <t>JC9</t>
+  </si>
+  <si>
+    <t>基础九</t>
+  </si>
+  <si>
+    <t>JC10</t>
+  </si>
+  <si>
+    <t>基础十</t>
+  </si>
+  <si>
+    <t>气力满后，下次攻击不受反击伤害</t>
   </si>
   <si>
     <t>羁绊ID</t>
@@ -1157,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1493,6 +1595,9 @@
       <c r="O8" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
@@ -1500,10 +1605,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -1512,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -1527,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1539,10 +1644,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -1572,10 +1677,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -1599,7 +1704,7 @@
         <v>32</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="13" customHeight="1" spans="1:16">
@@ -1608,10 +1713,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1635,7 +1740,385 @@
         <v>32</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <f t="shared" ref="A13:A22" si="1">ROW()-2</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="27.6" spans="1:16">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="27.6" spans="1:16">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +2141,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
